--- a/test-openpyxl/write.xlsx
+++ b/test-openpyxl/write.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="range names" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pi" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -127,6 +128,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2438400" cy="2438400"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1206,21 +1237,6 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
           <t>AE</t>
@@ -2573,4 +2589,43 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" min="1" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1" outlineLevel="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>画像の説明</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1" outlineLevel="1"/>
+    <row r="3" hidden="1" outlineLevel="1"/>
+    <row r="4" hidden="1" outlineLevel="1"/>
+    <row r="5" hidden="1" outlineLevel="1"/>
+    <row r="6" hidden="1" outlineLevel="1"/>
+    <row r="7" hidden="1" outlineLevel="1"/>
+    <row r="8" hidden="1" outlineLevel="1"/>
+    <row r="9" hidden="1" outlineLevel="1"/>
+    <row r="10" hidden="1" outlineLevel="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>